--- a/similarities/split_global/harmonic_similarity_timestamps_140.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_140.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,318 +484,356 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:30.654941', '0:00:38.514896')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.280000', '0:00:17.020000')]</t>
+          <t>('0:00:12.060000', '0:00:16.720000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:49.708684', '0:00:51.763650')]</t>
+          <t>('0:00:40.800000', '0:00:43.900000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=8.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=12.06</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=49.708684']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=40.8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:19.820000')]</t>
+          <t>('0:00:03', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:23.400000', '0:00:31.320000')]</t>
+          <t>('0:00:00.380000', '0:00:06.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+          <t>('0:00:13.480000', '0:00:20.960000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:00.220000', '0:00:05.780000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:00:07.220000', '0:00:16.840000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=7.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+          <t>('0:00:00.360000', '0:00:05.600000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:17.640000')]</t>
+          <t>('0:00:08.440000', '0:00:17.540000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:24.640000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -804,370 +842,396 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F'], ['C:7', 'F', 'C']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:47.026870'), ('0:00:39.386636', '0:00:52.146870')]</t>
+          <t>('0:00:45.260000', '0:00:57.580000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:01:06.040000', '0:01:08.540000')]</t>
+          <t>('0:00:00.780000', '0:00:09.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=39.386636']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=45.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+          <t>('0:01:35.020000', '0:01:47.700000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:01:02', '0:01:07.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=95.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=62.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:34.060000', '0:01:53.500000')]</t>
+          <t>('0:00:49.280000', '0:01:04.980000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+          <t>('0:00:25.640000', '0:00:56.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['B:7', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+          <t>('0:00:53.520000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:00:13.384180', '0:00:22.457415')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=53.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5'], ['A', 'D/5', 'A']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:19.780000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.710000', '0:00:04.875000'), ('0:00:00.939000', '0:00:03.682000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=1.71', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:38.120000')]</t>
+          <t>('0:00:15.880000', '0:00:17.370000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:27.580000', '0:03:02.300000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=15.88</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=147.58']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['A#:min/C#', 'F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:01.680000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:00:43.380000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=1.68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.38</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
